--- a/Excel for Data Analysis/Chapter - 1 - Excel_Data_Analysts_Training.xlsx
+++ b/Excel for Data Analysis/Chapter - 1 - Excel_Data_Analysts_Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\excel_dataanalysis\Excel for Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692B5B6B-6F29-468B-AAA2-B35602E3495E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2182026-B21E-4770-AA8E-D1576A07C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="824" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9168" uniqueCount="4129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9179" uniqueCount="4139">
   <si>
     <t>Employee ID</t>
   </si>
@@ -12563,6 +12563,36 @@
   </si>
   <si>
     <t>Laptop</t>
+  </si>
+  <si>
+    <t>City-pincode</t>
+  </si>
+  <si>
+    <t>Mumbai-400086</t>
+  </si>
+  <si>
+    <t>Pune-412345</t>
+  </si>
+  <si>
+    <t>Surat-234121</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>MUMBAI</t>
+  </si>
+  <si>
+    <t>DELHI</t>
+  </si>
+  <si>
+    <t>AHMEDABAD</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Ahmedabad</t>
   </si>
 </sst>
 </file>
@@ -12705,10 +12735,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -46025,7 +46055,7 @@
         <v>4121</v>
       </c>
       <c r="E2">
-        <f>LEN(D2)</f>
+        <f t="shared" ref="E2:E10" si="0">LEN(D2)</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -46036,7 +46066,7 @@
         <v>6</v>
       </c>
       <c r="H2">
-        <f>LEN(D2)</f>
+        <f t="shared" ref="H2:H10" si="1">LEN(D2)</f>
         <v>0</v>
       </c>
       <c r="I2">
@@ -46063,18 +46093,18 @@
         <v>4121</v>
       </c>
       <c r="E3">
-        <f>LEN(D3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>4121</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">LEN(F3)</f>
+        <f t="shared" ref="G3:G10" si="2">LEN(F3)</f>
         <v>6</v>
       </c>
       <c r="H3">
-        <f>LEN(D3)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3">
@@ -46101,18 +46131,18 @@
         <v>4119</v>
       </c>
       <c r="E4">
-        <f>LEN(D4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>4119</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H4">
-        <f>LEN(D4)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -46139,18 +46169,18 @@
         <v>4128</v>
       </c>
       <c r="E5">
-        <f>LEN(D5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>4128</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H5">
-        <f>LEN(D5)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
@@ -46177,18 +46207,18 @@
         <v>4121</v>
       </c>
       <c r="E6">
-        <f>LEN(D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>4121</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H6">
-        <f>LEN(D6)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
@@ -46215,18 +46245,18 @@
         <v>4128</v>
       </c>
       <c r="E7">
-        <f>LEN(D7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>4128</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H7">
-        <f>LEN(D7)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
@@ -46253,18 +46283,18 @@
         <v>4119</v>
       </c>
       <c r="E8">
-        <f>LEN(D8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>4119</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H8">
-        <f>LEN(D8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
@@ -46291,18 +46321,18 @@
         <v>4119</v>
       </c>
       <c r="E9">
-        <f>LEN(D9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>4119</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H9">
-        <f>LEN(D9)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
@@ -46329,18 +46359,18 @@
         <v>4128</v>
       </c>
       <c r="E10">
-        <f>LEN(D10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>4128</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H10">
-        <f>LEN(D10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
@@ -57029,13 +57059,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06447340-3542-4905-A882-E19A9A37EF3B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06447340-3542-4905-A882-E19A9A37EF3B}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B2">
+        <v>400086</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4131</v>
+      </c>
+      <c r="B3">
+        <v>412345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B4">
+        <v>234121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4136</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4138</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
